--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Fgfr2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H2">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N2">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q2">
-        <v>0.1060994787908889</v>
+        <v>0.09627240295599999</v>
       </c>
       <c r="R2">
-        <v>0.954895309118</v>
+        <v>0.866451626604</v>
       </c>
       <c r="S2">
-        <v>0.0002498526100019089</v>
+        <v>0.0001108218385109074</v>
       </c>
       <c r="T2">
-        <v>0.0002498526100019088</v>
+        <v>0.0001108218385109074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H3">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P3">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q3">
-        <v>0.3068103316975555</v>
+        <v>0.9908913246203332</v>
       </c>
       <c r="R3">
-        <v>2.761292985278</v>
+        <v>8.918021921583</v>
       </c>
       <c r="S3">
-        <v>0.0007225046062786922</v>
+        <v>0.001140642541239175</v>
       </c>
       <c r="T3">
-        <v>0.0007225046062786922</v>
+        <v>0.001140642541239175</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H4">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N4">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q4">
-        <v>0.08720793304200002</v>
+        <v>0.1021602321556667</v>
       </c>
       <c r="R4">
-        <v>0.7848713973780002</v>
+        <v>0.919442089401</v>
       </c>
       <c r="S4">
-        <v>0.0002053650963390643</v>
+        <v>0.0001175994823289751</v>
       </c>
       <c r="T4">
-        <v>0.0002053650963390643</v>
+        <v>0.0001175994823289752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>5.647565</v>
       </c>
       <c r="I5">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J5">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N5">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q5">
-        <v>0.7110842816427778</v>
+        <v>0.1997807293533333</v>
       </c>
       <c r="R5">
-        <v>6.399758534785001</v>
+        <v>1.79802656418</v>
       </c>
       <c r="S5">
-        <v>0.001674525320241604</v>
+        <v>0.0002299731495858186</v>
       </c>
       <c r="T5">
-        <v>0.001674525320241604</v>
+        <v>0.0002299731495858187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>5.647565</v>
       </c>
       <c r="I6">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J6">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P6">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q6">
         <v>2.056258963776111</v>
@@ -827,10 +827,10 @@
         <v>18.506330673985</v>
       </c>
       <c r="S6">
-        <v>0.004842263833848354</v>
+        <v>0.002367016837881886</v>
       </c>
       <c r="T6">
-        <v>0.004842263833848354</v>
+        <v>0.002367016837881887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>5.647565</v>
       </c>
       <c r="I7">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J7">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N7">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q7">
-        <v>0.5844721494150001</v>
+        <v>0.2119989224772222</v>
       </c>
       <c r="R7">
-        <v>5.260249344735</v>
+        <v>1.907990302295</v>
       </c>
       <c r="S7">
-        <v>0.001376367666165233</v>
+        <v>0.0002440378512416975</v>
       </c>
       <c r="T7">
-        <v>0.001376367666165233</v>
+        <v>0.0002440378512416976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H8">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I8">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J8">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N8">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q8">
-        <v>39.221066245659</v>
+        <v>8.942372422193333</v>
       </c>
       <c r="R8">
-        <v>352.989596210931</v>
+        <v>80.48135179974</v>
       </c>
       <c r="S8">
-        <v>0.092361299793465</v>
+        <v>0.01029381340912025</v>
       </c>
       <c r="T8">
-        <v>0.092361299793465</v>
+        <v>0.01029381340912025</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H9">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I9">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J9">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.276869</v>
       </c>
       <c r="O9">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P9">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q9">
-        <v>113.416469915739</v>
+        <v>92.04007568737278</v>
       </c>
       <c r="R9">
-        <v>1020.748229241651</v>
+        <v>828.360681186355</v>
       </c>
       <c r="S9">
-        <v>0.267083319810651</v>
+        <v>0.1059498889730582</v>
       </c>
       <c r="T9">
-        <v>0.267083319810651</v>
+        <v>0.1059498889730582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H10">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I10">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J10">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N10">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q10">
-        <v>32.23755816678901</v>
+        <v>9.489270181520556</v>
       </c>
       <c r="R10">
-        <v>290.138023501101</v>
+        <v>85.403431633685</v>
       </c>
       <c r="S10">
-        <v>0.07591590590124805</v>
+        <v>0.01092336261850104</v>
       </c>
       <c r="T10">
-        <v>0.07591590590124805</v>
+        <v>0.01092336261850104</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H11">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I11">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J11">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N11">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O11">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P11">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q11">
-        <v>0.05231921022011111</v>
+        <v>0.025977351092</v>
       </c>
       <c r="R11">
-        <v>0.470872891981</v>
+        <v>0.233796159828</v>
       </c>
       <c r="S11">
-        <v>0.0001232059890934719</v>
+        <v>2.990325076828621E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001232059890934718</v>
+        <v>2.990325076828621E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H12">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I12">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J12">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,22 +1187,22 @@
         <v>3.276869</v>
       </c>
       <c r="O12">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P12">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q12">
-        <v>0.1512926776334445</v>
+        <v>0.2673739414756666</v>
       </c>
       <c r="R12">
-        <v>1.361634098701</v>
+        <v>2.406365473281</v>
       </c>
       <c r="S12">
-        <v>0.0003562776255988507</v>
+        <v>0.0003077815745160481</v>
       </c>
       <c r="T12">
-        <v>0.0003562776255988507</v>
+        <v>0.0003077815745160482</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H13">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I13">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J13">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N13">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O13">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P13">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q13">
-        <v>0.04300351173900001</v>
+        <v>0.02756607435633333</v>
       </c>
       <c r="R13">
-        <v>0.387031605651</v>
+        <v>0.248094669207</v>
       </c>
       <c r="S13">
-        <v>0.0001012685431604547</v>
+        <v>3.17320742694399E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001012685431604547</v>
+        <v>3.17320742694399E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H14">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I14">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J14">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N14">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O14">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P14">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q14">
-        <v>25.93326798287022</v>
+        <v>6.664403746978667</v>
       </c>
       <c r="R14">
-        <v>233.399411845832</v>
+        <v>59.979633722808</v>
       </c>
       <c r="S14">
-        <v>0.06106999549139613</v>
+        <v>0.007671580360954585</v>
       </c>
       <c r="T14">
-        <v>0.06106999549139613</v>
+        <v>0.007671580360954586</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H15">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I15">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J15">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.276869</v>
       </c>
       <c r="O15">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P15">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q15">
-        <v>74.99183447929688</v>
+        <v>68.59390286192955</v>
       </c>
       <c r="R15">
-        <v>674.926510313672</v>
+        <v>617.345125757366</v>
       </c>
       <c r="S15">
-        <v>0.1765975270284972</v>
+        <v>0.07896034785037909</v>
       </c>
       <c r="T15">
-        <v>0.1765975270284972</v>
+        <v>0.07896034785037909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H16">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I16">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J16">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N16">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O16">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P16">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q16">
-        <v>21.315719206008</v>
+        <v>7.071985460689111</v>
       </c>
       <c r="R16">
-        <v>191.841472854072</v>
+        <v>63.647869146202</v>
       </c>
       <c r="S16">
-        <v>0.05019617568702193</v>
+        <v>0.008140758998548804</v>
       </c>
       <c r="T16">
-        <v>0.05019617568702193</v>
+        <v>0.008140758998548804</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H17">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I17">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J17">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N17">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O17">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P17">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q17">
-        <v>24.064868477868</v>
+        <v>54.39107076337201</v>
       </c>
       <c r="R17">
-        <v>216.583816300812</v>
+        <v>489.519636870348</v>
       </c>
       <c r="S17">
-        <v>0.05667012003327872</v>
+        <v>0.06261107311644266</v>
       </c>
       <c r="T17">
-        <v>0.05667012003327872</v>
+        <v>0.06261107311644266</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H18">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I18">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J18">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>3.276869</v>
       </c>
       <c r="O18">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P18">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q18">
-        <v>69.58894015402799</v>
+        <v>559.824399323119</v>
       </c>
       <c r="R18">
-        <v>626.3004613862521</v>
+        <v>5038.419593908071</v>
       </c>
       <c r="S18">
-        <v>0.163874304783518</v>
+        <v>0.6444294239192025</v>
       </c>
       <c r="T18">
-        <v>0.163874304783518</v>
+        <v>0.6444294239192027</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H19">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I19">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J19">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N19">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O19">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P19">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q19">
-        <v>19.77999762862801</v>
+        <v>57.71752076159301</v>
       </c>
       <c r="R19">
-        <v>178.019978657652</v>
+        <v>519.457686854337</v>
       </c>
       <c r="S19">
-        <v>0.04657972018019628</v>
+        <v>0.06644024215345049</v>
       </c>
       <c r="T19">
-        <v>0.04657972018019628</v>
+        <v>0.0664402421534505</v>
       </c>
     </row>
   </sheetData>
